--- a/Burndown.xlsx
+++ b/Burndown.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{902D500C-C2A0-4F63-A5A0-48FD508E4CC5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D3830CF-68F1-4493-8E23-7FE7D1076E24}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -426,7 +426,7 @@
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -513,7 +513,7 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -521,7 +521,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -529,7 +529,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -537,7 +537,7 @@
         <v>20</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -545,7 +545,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -553,7 +553,7 @@
         <v>19</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -561,7 +561,7 @@
         <v>13</v>
       </c>
       <c r="B16">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -569,7 +569,7 @@
         <v>8</v>
       </c>
       <c r="B17">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -577,7 +577,7 @@
         <v>15</v>
       </c>
       <c r="B18">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -585,7 +585,7 @@
         <v>5</v>
       </c>
       <c r="B19">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -593,7 +593,7 @@
         <v>9</v>
       </c>
       <c r="B20">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -601,7 +601,7 @@
         <v>3</v>
       </c>
       <c r="B21">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -609,7 +609,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -618,7 +618,7 @@
       </c>
       <c r="B23">
         <f>SUBTOTAL(109,B2:B22)</f>
-        <v>41</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
